--- a/src/test/java/tests/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/tests/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D315A6F2-683C-D340-9AFC-4C321BFE0520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD0417-BDE8-0B43-A272-0E592EC89A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1753,6 +1753,9 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>Nufus</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2190,7 +2193,7 @@
     <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2203,8 +2206,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2217,8 +2223,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2302,7 +2311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2316,7 +2325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2329,8 +2338,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2399,8 +2411,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4874,7 +4889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
